--- a/free_recall_SHINY/Test Data/Version C Guess Recall Data.xlsx
+++ b/free_recall_SHINY/Test Data/Version C Guess Recall Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Guess-Test Project\GRAM 2016 Recall Experiments\Recall Data Files\Version C\Good Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\lrd\free_recall_SHINY\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9471C3F-A77D-47C6-8D6B-DEB2806357DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19155" windowHeight="9795" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess Data" sheetId="1" r:id="rId1"/>
@@ -44,21 +45,9 @@
     <t>AG3U3XPWYPOMG</t>
   </si>
   <si>
-    <t>acre  helmet  debt  episode  wax  index  orphan  hermit  desert  bishop  harvest  jam  manual  canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bicycle  record  yoyo  spool  top  sphere  bottle  satellite  hurricane  gear  </t>
-  </si>
-  <si>
     <t>stadium  school  office  cabinet</t>
   </si>
   <si>
-    <t>shelter  pickle  wire  paste  shop  flask  arrow  tune  penny  pit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fork  knife  spoon  glass  plate  kettle  bowl  mug  stove  mixer  oven  </t>
-  </si>
-  <si>
     <t>property  ground  biscuit</t>
   </si>
   <si>
@@ -68,36 +57,15 @@
     <t>ground  yeard  chamber</t>
   </si>
   <si>
-    <t>cherry  blackberry  raspberry  apple  mango  coconut  peach  strawberry  apricot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog  donkey  horse  bull  buffalo  squirrel  lion  deer  sheep  mule  rat  wolf  fox  zebra  giraffe  </t>
-  </si>
-  <si>
     <t>band  missile  noise</t>
   </si>
   <si>
     <t>sports  hobbies</t>
   </si>
   <si>
-    <t xml:space="preserve">lizard  leaves  tree  dog  horse  donkey  wolf  fox  mule  chameleon  algae  jungle  frog  house  basketball  volleyball  golf  hockey  bowling  polo  boxing  fishing  train  infant  orchestra  crowd  noise  party  bells  bomb  rocket  bird  parrot  duck  chicken  owl  eagle  cloves  cumin  ginger  nutmeg  plate  glass  spoon  knife  fork  pepper  sheep  party  feast  yell  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">debt  whale  lantern  candy  hermit  meteor  wax  index  harvest  acre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tornado  hurricane  sphere  pinwheel  yo-yo  rotisserie    </t>
-  </si>
-  <si>
     <t>window  room  toy  basement  railing</t>
   </si>
   <si>
-    <t xml:space="preserve">wire  skewer  acorn  cane  mane  gear  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillet  fork  spoon  plate  measuring cup  mug  platter  fridge  strainer  knife  freezer  can opener  oven mits  can opener  </t>
-  </si>
-  <si>
     <t xml:space="preserve">road  bench  tree  scout  </t>
   </si>
   <si>
@@ -107,36 +75,15 @@
     <t>pipe  scissors  mummy</t>
   </si>
   <si>
-    <t xml:space="preserve">nectarine  tangerine  strawberry  cherry  blackberry  raspberry  watermelon  honeydew  blueberry  apricot  coconut  mango  huckleberry    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog  wolf  rat  elephant  fox  sheep  rabbit  squirrel  zebra      </t>
-  </si>
-  <si>
     <t>crowd  stage  button  seats</t>
   </si>
   <si>
     <t xml:space="preserve">curling  baseball  football  basketball  </t>
   </si>
   <si>
-    <t xml:space="preserve">lillypad  sheep  fox  dog  sprout  father  hurricane  tornado  mixer  fridge  spoon  knife  fork  platter  can opener  freezer  oven mits  rotisserie  strawberry  blueberry  blackberry  apricot  almond  coconut  huckleberry  watermelon  honeydew  cumin  father  poison  turmeric  thyme  horseradish  wheel  whale  wax  meter  poem  play  newspaper  particleboard  periodical  chair  table  infant  outlaw  bolt  nugget  elephant  ship  door  stairway  staircase  stairs  orchestra  hockey  badminton  golf  polo  hockey  rugby                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERMIT  HARVEST  DESERT  BISHOP  CANDY  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINWHEEL  CASINO  ROULETTE  ORB  </t>
-  </si>
-  <si>
     <t>PAPER  COAT  BOWL  FRIDGE  SOFA</t>
   </si>
   <si>
-    <t xml:space="preserve">ARROW  SHELTER  PIT  MOON  </t>
-  </si>
-  <si>
-    <t>KNIFE  MUG  MIXER  BOWL  FORK  PLATE  SPOON</t>
-  </si>
-  <si>
     <t>TREE  PLAY  SONG  GIRL  CHARITY</t>
   </si>
   <si>
@@ -146,36 +93,15 @@
     <t>FISH  ROAD  UNIFORM  CAR  PATH</t>
   </si>
   <si>
-    <t xml:space="preserve">BLUEBERRY  RASPBERRY  APRICOT  CANTALOUPE  APPLE  PEACH  PEAR  WATERMELON  CHERRY  COCONUT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAT  WOLF  BEAR  RABBIT  GOAT  LION  DEER  MULE  HORSE  SHEEP  DOG   BULL  ELEPHANT  GIRAFFE  </t>
-  </si>
-  <si>
     <t xml:space="preserve">MARCHING  PEOPLE  BUS  MUSIC  ANTHEM  </t>
   </si>
   <si>
     <t xml:space="preserve">BALL  FIELD  RACQUETBALL  MARTIAL ARTS  CHAMPION  </t>
   </si>
   <si>
-    <t xml:space="preserve">ELEPHANT  LION  ZEBRA  GIRAFFE  CANDY  RABBIT  PEACH  PEAR  RASPBERRY  BLUEBERRY  HORSE  MULE  PIT  APRICOT  FROG  GOLF  BEER  TRUMPET  CUP  BOWL  SPOON  PLATE  KNIFE  FORK  CUP  CHAINSAW  DONKEY  DEER  BULL  COUCH  BED  DOOR  SHIP  PROPELLER  PING PONG  TABLE  CHAIR  DESK  TRAIN  SHIP  BABIES  SHRIMP  EAGLE  PARAKEET  DOVE      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">helmet  hermit  debt  keg  lantern  empress  desert  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yo-yo  gyrosphere  top  roulette  bicycle  pinwheel  windmill  bottle  spiral  hurricane  </t>
-  </si>
-  <si>
     <t xml:space="preserve">dresser  gate  porch  swing  broomstick  </t>
   </si>
   <si>
-    <t xml:space="preserve">canoe  penny  kayak  canon  crest  barn  pickle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">platter  measuring cup  knife  mug  sauce pan  plate  </t>
-  </si>
-  <si>
     <t>musician  sidewalk  playground  basketball  track</t>
   </si>
   <si>
@@ -185,36 +111,15 @@
     <t xml:space="preserve">thread  string  closet  pothole  </t>
   </si>
   <si>
-    <t xml:space="preserve">nectarine  raspberry  blueberry  strawberry  watermelon  canteloupe  blackberry  cherry  raisin  pineapple  pear  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabbit  deer  anteloupe  elk  elephant  </t>
-  </si>
-  <si>
     <t xml:space="preserve">siren  bullhorn  tractor  </t>
   </si>
   <si>
     <t xml:space="preserve">track and field  swimming  bobsledding  </t>
   </si>
   <si>
-    <t xml:space="preserve">lil pad  cucumber  jade  sled  keg  debt  lantern  spiral  yo-yo  owl  deck  father  mug  measuring cup  platter  knife  cardinal  hawk  cantaloupe  blackberry  blueberry  strawberry  door  desk  swing  shelf  ruler  chair  pineapple  pear  frog  desert  snake  jungle  crown  kayak  crest  canon  canoe  estate  park  tricycle  badmitton  fencing  rugby  lacrosse  soccer  ping pong  tennis  pigeon  station  eagle  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wax  orphan  debt  whale  bishop  candy   acre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tornado  sphere  rotisserie  orb   bicycle  gear  yoyo  propellor  bottle  spiral  </t>
-  </si>
-  <si>
     <t>snow  paper  yard  blinds  floor  sun</t>
   </si>
   <si>
-    <t xml:space="preserve">pale   press  patron  diner   penny  paste  </t>
-  </si>
-  <si>
-    <t>knife   spoon   fork  plate   skillet  pots  oven mits  bowl  glass  strainer  mug  freezer  k</t>
-  </si>
-  <si>
     <t>water  plant  tree  mail  play  snow  pepper</t>
   </si>
   <si>
@@ -224,36 +129,15 @@
     <t>food  water  fishing  ice cream</t>
   </si>
   <si>
-    <t>blackberry  blueberry  strawberry  rasberry  huckleberry  watermelon  pineapple  apple  peach  pear  tangerine  nectarine  cantaloupe  honeydew  cherry</t>
-  </si>
-  <si>
-    <t>bull  buffalo  donkey   mule  lion  dog  rat  rabbit  elephant  giraffe  horse  fox  wolf  bear  goat  deer  zebra</t>
-  </si>
-  <si>
     <t>music   car  tracks  crops  talk  sing</t>
   </si>
   <si>
     <t xml:space="preserve">talent  sports  winning  medals  losers  </t>
   </si>
   <si>
-    <t xml:space="preserve">fork  knife  spoon   house   window  mug  plate  platter  kettle   glass  wolf  fox   giraffe  elephant   lion  dog  horse  zebra  bear  sheep  goat  blueberry  strawberry  huckleberry  blackbeerry  cherry  honeydew  cantaloupe  watermelon  apple   pineapple  tangerine  nectarine  peach  pear  beehive  hook  cone  soccer  track  table  pencil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">episode  lantern  candy  harvest  wax  index  empress  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">spool  bottle  gyroscope  propeller  </t>
-  </si>
-  <si>
     <t xml:space="preserve">toys  window  couch  bat  chair </t>
   </si>
   <si>
-    <t xml:space="preserve">pickle  shelter  moat  boat  canon  home </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pots  skillet  bowl  oven mitt  sauce  kettle  mug  freezer  </t>
-  </si>
-  <si>
     <t xml:space="preserve">popcorn  tree  plant  flower  rock </t>
   </si>
   <si>
@@ -263,36 +147,15 @@
     <t xml:space="preserve">mummy  jar  egypt  boat  chariot </t>
   </si>
   <si>
-    <t xml:space="preserve">apple  mango  nectarine  melon  watermelon  cantalope  raisin  grapes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bull  fox  dog  lion  grass  </t>
-  </si>
-  <si>
     <t xml:space="preserve">corn  cows  banjo  popsicle  dancing  boots  cowboy hat  fiddle </t>
   </si>
   <si>
     <t xml:space="preserve">tennis  football  baseball  swimming  diving </t>
   </si>
   <si>
-    <t xml:space="preserve">vanilla  almond  kettle  bowl  lizard  frog  money  chameleon  sage    oregano  bowl  spatula  door  window  couch  canoe  boat  house  crest    lion  fox  dog  chicken  bird  cardinal  chickadee  cheesecloth  burlap  felt    chiffon  denium  cloth  silk  freezer   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whale  Jam  Canteen  Empress  Debt  Color  Keg  </t>
-  </si>
-  <si>
-    <t>Roulette  Windmill  Orb  Propeller  Dredoid  Mill  case</t>
-  </si>
-  <si>
     <t>Eraser  Teacher  Picture  Marker  White Paper</t>
   </si>
   <si>
-    <t xml:space="preserve">Post  Pit  task  Kerosene  Umbrella  Pain  table  tip  Mit  Diner  Bucket    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knife  Pot  table  millet  plate  miller  mixer  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bagpipe  ice cream  </t>
   </si>
   <si>
@@ -302,21 +165,12 @@
     <t>Insect  Sand</t>
   </si>
   <si>
-    <t xml:space="preserve">Coconut  Peach  Blackberry  Huckleberry  Watermelon  Grapes  Raspberry  </t>
-  </si>
-  <si>
-    <t>Zebra  Donkey  Bear  Chicken  Goat  Fox  Dog</t>
-  </si>
-  <si>
     <t>Book  Journal  Periodical  Dictionary</t>
   </si>
   <si>
     <t>Lactose  Badminton  Volleyball.</t>
   </si>
   <si>
-    <t xml:space="preserve">Frog  Raspberry  huckleberry  blackberry  class  snake  visit  dictionary  periodicals  book  diary  pin  tip  mango  truck  bus  eat  wall street  food snacks  chicken  mutton  border  pen  pencil  marker  gun  baby  happy  smile  watch  hut  monkey  picture  fire  colors  </t>
-  </si>
-  <si>
     <t>Version C Guess Data</t>
   </si>
   <si>
@@ -384,12 +238,159 @@
   </si>
   <si>
     <t>Version C Final Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lizard leaves tree dog horse donkey wolf fox mule chameleon algae jungle frog house basketball volleyball golf hockey bowling polo boxing fishing train infant orchestra crowd noise party bells bomb rocket bird parrot duck chicken owl eagle cloves cumin ginger nutmeg plate glass spoon knife fork pepper sheep party feast yell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lil pad cucumber jade sled keg debt lantern spiral yo-yo owl deck father mug measuring cup platter knife cardinal hawk cantaloupe blackberry blueberry strawberry door desk swing shelf ruler chair pineapple pear frog desert snake jungle crown kayak crest canon canoe estate park tricycle badmitton fencing rugby lacrosse soccer ping pong tennis pigeon station eagle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frog Raspberry huckleberry blackberry class snake visit dictionary periodicals book diary pin tip mango truck bus eat wall street food snacks chicken mutton border pen pencil marker gun baby happy smile watch hut monkey picture fire colors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fork knife spoon house window mug plate platter kettle glass wolf fox giraffe elephant lion dog horse zebra bear sheep goat blueberry strawberry huckleberry blackbeerry cherry honeydew cantaloupe watermelon apple pineapple tangerine nectarine peach pear beehive hook cone soccer track table pencil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanilla almond kettle bowl lizard frog money chameleon sage oregano bowl spatula door window couch canoe boat house crest lion fox dog chicken bird cardinal chickadee cheesecloth burlap felt chiffon denium cloth silk freezer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEPHANT LION ZEBRA GIRAFFE CANDY RABBIT PEACH PEAR RASPBERRY BLUEBERRY HORSE MULE PIT APRICOT FROG GOLF BEER TRUMPET CUP BOWL SPOON PLATE KNIFE FORK CUP CHAINSAW DONKEY DEER BULL COUCH BED DOOR SHIP PROPELLER PING PONG TABLE CHAIR DESK TRAIN SHIP BABIES SHRIMP EAGLE PARAKEET DOVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lillypad sheep fox dog sprout father hurricane tornado mixer fridge spoon knife fork platter can opener freezer oven mits rotisserie strawberry blueberry blackberry apricot almond coconut huckleberry watermelon honeydew cumin father poison turmeric thyme horseradish wheel whale wax meter poem play newspaper particleboard periodical chair table infant outlaw bolt nugget elephant ship door stairway staircase stairs orchestra hockey badminton golf polo hockey rugby </t>
+  </si>
+  <si>
+    <t>acre helmet debt episode wax index orphan hermit desert bishop harvest jam manual canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle record yoyo spool top sphere bottle satellite hurricane gear </t>
+  </si>
+  <si>
+    <t>shelter pickle wire paste shop flask arrow tune penny pit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fork knife spoon glass plate kettle bowl mug stove mixer oven </t>
+  </si>
+  <si>
+    <t>cherry blackberry raspberry apple mango coconut peach strawberry apricot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog donkey horse bull buffalo squirrel lion deer sheep mule rat wolf fox zebra giraffe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">debt whale lantern candy hermit meteor wax index harvest acre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire skewer acorn cane mane gear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillet fork spoon plate measuring cup mug platter fridge strainer knife freezer can opener oven mits can opener </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERMIT HARVEST DESERT BISHOP CANDY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINWHEEL CASINO ROULETTE ORB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROW SHELTER PIT MOON </t>
+  </si>
+  <si>
+    <t>KNIFE MUG MIXER BOWL FORK PLATE SPOON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUEBERRY RASPBERRY APRICOT CANTALOUPE APPLE PEACH PEAR WATERMELON CHERRY COCONUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">helmet hermit debt keg lantern empress desert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo-yo gyrosphere top roulette bicycle pinwheel windmill bottle spiral hurricane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">canoe penny kayak canon crest barn pickle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">platter measuring cup knife mug sauce pan plate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nectarine raspberry blueberry strawberry watermelon canteloupe blackberry cherry raisin pineapple pear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit deer anteloupe elk elephant </t>
+  </si>
+  <si>
+    <t>blackberry blueberry strawberry rasberry huckleberry watermelon pineapple apple peach pear tangerine nectarine cantaloupe honeydew cherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">episode lantern candy harvest wax index empress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spool bottle gyroscope propeller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pickle shelter moat boat canon home </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pots skillet bowl oven mitt sauce kettle mug freezer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple mango nectarine melon watermelon cantalope raisin grapes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bull fox dog lion grass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whale Jam Canteen Empress Debt Color Keg </t>
+  </si>
+  <si>
+    <t>Roulette Windmill Orb Propeller Dredoid Mill case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knife Pot table millet plate miller mixer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coconut Peach Blackberry Huckleberry Watermelon Grapes Raspberry </t>
+  </si>
+  <si>
+    <t>Zebra Donkey Bear Chicken Goat Fox Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tornado hurricane sphere pinwheel yo-yo rotisserie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nectarine tangerine strawberry cherry blackberry raspberry watermelon honeydew blueberry apricot coconut mango huckleberry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT WOLF BEAR RABBIT GOAT LION DEER MULE HORSE SHEEP DOG BULL ELEPHANT GIRAFFE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wax orphan debt whale bishop candy acre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tornado sphere rotisserie orb bicycle gear yoyo propellor bottle spiral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pale press patron diner penny paste </t>
+  </si>
+  <si>
+    <t>knife spoon fork plate skillet pots oven mits bowl glass strainer mug freezer k</t>
+  </si>
+  <si>
+    <t>bull buffalo donkey mule lion dog rat rabbit elephant giraffe horse fox wolf bear goat deer zebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Pit task Kerosene Umbrella Pain table tip Mit Diner Bucket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog wolf rat elephant fox sheep rabbit squirrel zebra </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,6 +1026,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1060,6 +1078,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1235,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1250,21 +1285,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1412,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,13 +1489,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1468,13 +1503,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,13 +1531,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,13 +1545,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,13 +1559,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,13 +1573,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,13 +1587,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,13 +1601,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,13 +1615,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,13 +1629,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,13 +1643,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1657,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,13 +1671,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,13 +1685,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,13 +1699,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,13 +1713,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,13 +1727,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,13 +1741,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,13 +1783,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,13 +1811,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,13 +1825,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,13 +1839,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,13 +1853,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,13 +1867,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,17 +1881,17 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W92">
     <sortCondition ref="B2:B92"/>
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -1866,11 +1901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,21 +1917,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1904,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2030,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2044,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,13 +2135,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2128,13 +2163,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,13 +2177,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,13 +2191,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2170,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,13 +2219,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2212,13 +2247,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,13 +2261,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,13 +2275,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,13 +2289,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2296,13 +2331,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2310,13 +2345,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,13 +2359,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,13 +2387,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,13 +2429,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2443,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,13 +2457,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,13 +2471,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,13 +2485,13 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2499,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2513,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2494,11 +2529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,12 +2544,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
